--- a/Bunpo.xlsx
+++ b/Bunpo.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="内容" sheetId="1" r:id="rId1"/>
+    <sheet name="宿題" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="132">
   <si>
     <t>No</t>
   </si>
@@ -142,16 +143,317 @@
   </si>
   <si>
     <t>「名」＋にあって</t>
+  </si>
+  <si>
+    <t>落書きをしてた子供たちは、私の顔を見るが早いか、逃げて行った。</t>
+  </si>
+  <si>
+    <t>新しい化粧品が発表されるが早いか、若い女性たちが殺到した。</t>
+  </si>
+  <si>
+    <t>見て</t>
+  </si>
+  <si>
+    <t>見る</t>
+  </si>
+  <si>
+    <t>見るの</t>
+  </si>
+  <si>
+    <t>若い女性たちが殺到した</t>
+  </si>
+  <si>
+    <t>多くの女性に勝ってほしい</t>
+  </si>
+  <si>
+    <t>すぐに買ってください</t>
+  </si>
+  <si>
+    <t>新幹線が走り出すが早いか、彼はビールを飲み始めた。</t>
+  </si>
+  <si>
+    <t>みんなでお弁当を食べよう</t>
+  </si>
+  <si>
+    <t>みんなとても楽しそうだった</t>
+  </si>
+  <si>
+    <t>彼はビールを飲み始めた</t>
+  </si>
+  <si>
+    <t>本格的に絵の勉強を始めるや、彼のデッサン力はみるみる上がった。</t>
+  </si>
+  <si>
+    <t>している</t>
+  </si>
+  <si>
+    <t>始める</t>
+  </si>
+  <si>
+    <t>続ける</t>
+  </si>
+  <si>
+    <t>サイレンが鳴るや、消防車が出動した。</t>
+  </si>
+  <si>
+    <t>すぐ飛び出そう</t>
+  </si>
+  <si>
+    <t>消防車が出動した</t>
+  </si>
+  <si>
+    <t>校庭に集合しなさい</t>
+  </si>
+  <si>
+    <t>太郎はアニメを一本見終わるや否や、別のアニメを仮にレンタルショップに行った。</t>
+  </si>
+  <si>
+    <t>将来はアニメの仕事をしたいらしい</t>
+  </si>
+  <si>
+    <t>今ではアニメがとても好きだ</t>
+  </si>
+  <si>
+    <t>別のアニメを仮にレンタルショップに行った</t>
+  </si>
+  <si>
+    <t>あの店のパンは評判がよく、焼きあがるそばからどんどん売れていく。</t>
+  </si>
+  <si>
+    <t>どんどん</t>
+  </si>
+  <si>
+    <t>次第に</t>
+  </si>
+  <si>
+    <t>そのうち</t>
+  </si>
+  <si>
+    <t>私は聞いたそばから人の名前を忘れてしまう。</t>
+  </si>
+  <si>
+    <t>わかった</t>
+  </si>
+  <si>
+    <t>聞いた</t>
+  </si>
+  <si>
+    <t>知っている</t>
+  </si>
+  <si>
+    <t>服を買ったそばから新しいのが欲しいくなる。</t>
+  </si>
+  <si>
+    <t>家を建てた</t>
+  </si>
+  <si>
+    <t>服を買った</t>
+  </si>
+  <si>
+    <t>テレビが壊れた</t>
+  </si>
+  <si>
+    <t>タバコをやめてからというもの、体の調子がいい。</t>
+  </si>
+  <si>
+    <t>朝起きてから</t>
+  </si>
+  <si>
+    <t>タバコをためてから</t>
+  </si>
+  <si>
+    <t>さっき薬を飲んでから</t>
+  </si>
+  <si>
+    <t>あの先生の話を聞いてからというもの、人生についていろいろ考えている。</t>
+  </si>
+  <si>
+    <t>人生についていろいろ考えている</t>
+  </si>
+  <si>
+    <t>先生の著書を3冊買った</t>
+  </si>
+  <si>
+    <t>先生の考えに同感した</t>
+  </si>
+  <si>
+    <t>会社を辞めてからというもの、毎日のように釣りをしている。</t>
+  </si>
+  <si>
+    <t>新しい仕事を始めた</t>
+  </si>
+  <si>
+    <t>初めて加害旅行をした</t>
+  </si>
+  <si>
+    <t>毎日のように釣りをしている</t>
+  </si>
+  <si>
+    <t>木村氏は一国の指導者という立場にあって、日々多忙なスケジュールをこなしている。</t>
+  </si>
+  <si>
+    <t>一国の指導者</t>
+  </si>
+  <si>
+    <t>一国の指導者という立場</t>
+  </si>
+  <si>
+    <t>二つの仕事</t>
+  </si>
+  <si>
+    <t>病床</t>
+  </si>
+  <si>
+    <t>仕事中</t>
+  </si>
+  <si>
+    <t>多忙な日常</t>
+  </si>
+  <si>
+    <t>母は多忙な日常にあって、子供たちのことを心配している。</t>
+  </si>
+  <si>
+    <t>このような緊急時にあっても、彼は落ち着いている。</t>
+  </si>
+  <si>
+    <t>彼は驚いている</t>
+  </si>
+  <si>
+    <t>私は彼を探した</t>
+  </si>
+  <si>
+    <t>彼は落ち着いている</t>
+  </si>
+  <si>
+    <t>彼はばれてからというもの退職した。</t>
+  </si>
+  <si>
+    <t>ばれるが早いか</t>
+  </si>
+  <si>
+    <t>ばれてからというもの</t>
+  </si>
+  <si>
+    <t>ばれるそばから</t>
+  </si>
+  <si>
+    <t>父は私の顔を一目見るなり笑い出した。</t>
+  </si>
+  <si>
+    <t>見てからというもの</t>
+  </si>
+  <si>
+    <t>見るなり</t>
+  </si>
+  <si>
+    <t>見たそばから</t>
+  </si>
+  <si>
+    <t>片付けるが早いか、子供たちがまた部屋を散らかす。</t>
+  </si>
+  <si>
+    <t>が早いか</t>
+  </si>
+  <si>
+    <t>そばから</t>
+  </si>
+  <si>
+    <t>なり</t>
+  </si>
+  <si>
+    <t>サッカーのワールドカップを一度見てからというもの、僕はサッカーに夢中になっている。</t>
+  </si>
+  <si>
+    <t>見るや否や</t>
+  </si>
+  <si>
+    <t>入場の受け付けが始まってからというもの、係の人たちは急に忙しくなって。</t>
+  </si>
+  <si>
+    <t>入るや</t>
+  </si>
+  <si>
+    <t>入るそばから</t>
+  </si>
+  <si>
+    <t>始まるや否や</t>
+  </si>
+  <si>
+    <t>始まってからというもの</t>
+  </si>
+  <si>
+    <t>始まるそばから</t>
+  </si>
+  <si>
+    <t>行方不明の子が見つかったという知らせが入るや、家族は泣き出した。</t>
+  </si>
+  <si>
+    <t>入ってからというもの</t>
+  </si>
+  <si>
+    <t>～を皮切りに（して）・～を皮切りとして</t>
+  </si>
+  <si>
+    <t>～から始まって次々に何かをする</t>
+  </si>
+  <si>
+    <t>「名」＋～を皮切りに（して）・～を皮切りとして</t>
+  </si>
+  <si>
+    <t>後には同じような行動や出来事が次々に起こり、発展していくという意味の文が来る。一続きであることがはっきりしている場合に使う。自然現象やよくないことにはあまり使わない。</t>
+  </si>
+  <si>
+    <t>～に至るまで</t>
+  </si>
+  <si>
+    <t>～という意外なことにまで、ある事の範囲が及ぶ</t>
+  </si>
+  <si>
+    <t>1.この作家は自分の父親のことを書いた小説を皮切りに、次々に話題作を発表している。
+2.私たちのバンドは来月3日の東京公演をかわかりにして、全国ツアーを予定しています。
+3.K銀行とM銀行の合併をかわかりとして、この数年企業の合併・統合が相次いで行われている。</t>
+  </si>
+  <si>
+    <t>1.私の学校は服装が厳しい。制服の着方はもちろん、ヘアスタイルやスカートの長さに至るまで注意される。
+2.今度の旅行のスケジュール表は綿密だ。起床時間から飛行機内の食事開始時間に至るまで書いてある。
+3.父の趣味は料理です。食材も自家製でないと気が済まないらしく、みそ、とうふに至るまで自分で作ります。</t>
+  </si>
+  <si>
+    <t>「名」＋に至るまで</t>
+  </si>
+  <si>
+    <t>普通からあまり取り上げられない意外なことを表わす言葉につき、範囲が広く及んでいることを強調する。範囲の広さを表わすため、まず取り上げられそうな例を「～はもちろん」で示したり、まったく別の種類の例を「～から」で示したりすることも多い。</t>
+  </si>
+  <si>
+    <t>～を限りに</t>
+  </si>
+  <si>
+    <t>～の時までで、それまで続いていたことを終わりにする、と宣言する</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -198,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -220,6 +522,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -527,19 +838,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" customWidth="1"/>
-    <col min="4" max="4" width="58.42578125" customWidth="1"/>
-    <col min="5" max="5" width="45.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="61" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" style="7" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="71.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -700,36 +1012,60 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="B9" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -836,4 +1172,361 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:E44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17.28515625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" style="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C24" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C26" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C28" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C30" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C32" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C34" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C36" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C38" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C40" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C42" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C44" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Bunpo.xlsx
+++ b/Bunpo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="内容" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="218">
   <si>
     <t>No</t>
   </si>
@@ -409,11 +409,6 @@
     <t>～という意外なことにまで、ある事の範囲が及ぶ</t>
   </si>
   <si>
-    <t>1.この作家は自分の父親のことを書いた小説を皮切りに、次々に話題作を発表している。
-2.私たちのバンドは来月3日の東京公演をかわかりにして、全国ツアーを予定しています。
-3.K銀行とM銀行の合併をかわかりとして、この数年企業の合併・統合が相次いで行われている。</t>
-  </si>
-  <si>
     <t>1.私の学校は服装が厳しい。制服の着方はもちろん、ヘアスタイルやスカートの長さに至るまで注意される。
 2.今度の旅行のスケジュール表は綿密だ。起床時間から飛行機内の食事開始時間に至るまで書いてある。
 3.父の趣味は料理です。食材も自家製でないと気が済まないらしく、みそ、とうふに至るまで自分で作ります。</t>
@@ -429,6 +424,275 @@
   </si>
   <si>
     <t>～の時までで、それまで続いていたことを終わりにする、と宣言する</t>
+  </si>
+  <si>
+    <t>「名」＋を限りに</t>
+  </si>
+  <si>
+    <t>時を表わす言葉（今日・今回・本年度など）につくことが多い</t>
+  </si>
+  <si>
+    <t>1.この作家は自分の父親のことを書いた小説を皮切りに、次々に話題作を発表している。
+2.私たちのバンドは来月3日の東京公演を皮切りにして、全国ツアーを予定しています。
+3.K銀行とM銀行の合併を皮切りとして、この数年企業の合併・統合が相次いで行われている。</t>
+  </si>
+  <si>
+    <t>1.本年度を限りにこの講座の受講生募集を行わないことになりました。
+2.今日を限りにタバコを止めるぞ!
+3.これを限りにお前とは親子の縁を切る。以降親でもなく、子でもない。</t>
+  </si>
+  <si>
+    <t>～をもって</t>
+  </si>
+  <si>
+    <t>～の時までで、ある行事やそれまで続いていたことを終わりにする、と宣言する。</t>
+  </si>
+  <si>
+    <t>「名」＋をもって</t>
+  </si>
+  <si>
+    <t>1.これをもって第35回卒業証書授与式を終わります。
+2.2月20日をもって願書受け付けを締め切ります。遅れないように出してください。
+3.当店は9月末日をもちまして閉店させていただきました。長い間のご利用ありがとうございました。</t>
+  </si>
+  <si>
+    <t>時・期日を表わす言葉につく。公式的な硬い言い方で、日常のことには使わない。</t>
+  </si>
+  <si>
+    <t>～といったところだ</t>
+  </si>
+  <si>
+    <t>程度は最高でも～で、あまり高くない。</t>
+  </si>
+  <si>
+    <t>「名」＋といったところだ</t>
+  </si>
+  <si>
+    <t>1.当地は夏もそれほど歩くありません。最高に暑い日でも26，7度といったところです。
+2.この山歩き会では毎月山歩きを行っていますが、参加者は毎回せいぜい6，7といったところです。
+3.休みがあってもほとんど遠出はしません。せいぜい一泊温泉に行くといったところでしょうか。</t>
+  </si>
+  <si>
+    <t>あまり多くない数字や少ないことを表わす言葉につく</t>
+  </si>
+  <si>
+    <t>その宇宙飛行士の講演会は北海道を皮切りに、130か所で行われた。</t>
+  </si>
+  <si>
+    <t>北海道</t>
+  </si>
+  <si>
+    <t>外国</t>
+  </si>
+  <si>
+    <t>全国</t>
+  </si>
+  <si>
+    <t>この選手は昨年の地区大会入賞を皮切りに、いくつもの大会で好成績を残している。</t>
+  </si>
+  <si>
+    <t>ますます練習に励んでいる</t>
+  </si>
+  <si>
+    <t>今年も入賞が期待される</t>
+  </si>
+  <si>
+    <t>いくつもの大会で好成績を残している</t>
+  </si>
+  <si>
+    <t>山田さんの発言を皮切りにして、みんなが次々に意見を言った。</t>
+  </si>
+  <si>
+    <t>皆さんが意見を言ってください</t>
+  </si>
+  <si>
+    <t>皆が次々に意見を言った</t>
+  </si>
+  <si>
+    <t>川田さんも意見を言った</t>
+  </si>
+  <si>
+    <t>中川さんは10年前の個展を皮切りとして、いろいろなところで個展を開いている。</t>
+  </si>
+  <si>
+    <t>いろいろなところで個展を開いている</t>
+  </si>
+  <si>
+    <t>その後2度個展を開いた</t>
+  </si>
+  <si>
+    <t>一度も個展を開いていない</t>
+  </si>
+  <si>
+    <t>私は退職の記念旅行を皮切りとして、国内、国外をあちこち旅行している。</t>
+  </si>
+  <si>
+    <t>旅行が老後の趣味になった</t>
+  </si>
+  <si>
+    <t>国内、国外をあちこち旅行している</t>
+  </si>
+  <si>
+    <t>旅行会社に勤め始めた</t>
+  </si>
+  <si>
+    <t>小村先生には卒業後の進路はもちろん、恋愛の悩みに至るまで何でも相談している。</t>
+  </si>
+  <si>
+    <t>勉強</t>
+  </si>
+  <si>
+    <t>宿題のやり方</t>
+  </si>
+  <si>
+    <t>恋愛の悩み</t>
+  </si>
+  <si>
+    <t>外国で暮らすことになったので、ベッドからスプーンに至るまでみんなリサイクルショップに売った。</t>
+  </si>
+  <si>
+    <t>ベッドからスプーン</t>
+  </si>
+  <si>
+    <t>皿からカップ</t>
+  </si>
+  <si>
+    <t>雑誌から本</t>
+  </si>
+  <si>
+    <t>みゆさんは天気はもちろん、その日の朝、昼、晩の気温に至るまで日記に書き留めているそうだ。</t>
+  </si>
+  <si>
+    <t>その日の自分の行動</t>
+  </si>
+  <si>
+    <t>の日の朝、昼、晩の気温</t>
+  </si>
+  <si>
+    <t>その日の出来事</t>
+  </si>
+  <si>
+    <t>この点は今月を限りに閉店するそうだ。</t>
+  </si>
+  <si>
+    <t>今月</t>
+  </si>
+  <si>
+    <t>今月まで</t>
+  </si>
+  <si>
+    <t>あと一月</t>
+  </si>
+  <si>
+    <t>私は今日を限りにこの会社を辞めます。</t>
+  </si>
+  <si>
+    <t>この会社の社員です</t>
+  </si>
+  <si>
+    <t>この会社を辞めます</t>
+  </si>
+  <si>
+    <t>新しい会社に入社します</t>
+  </si>
+  <si>
+    <t>この高校は今年を限りに生徒を募集しない。</t>
+  </si>
+  <si>
+    <t>開校される</t>
+  </si>
+  <si>
+    <t>生徒数が増加する</t>
+  </si>
+  <si>
+    <t>生徒を募集しない</t>
+  </si>
+  <si>
+    <t>以上をもちまして本日の演説会は終了いたします。</t>
+  </si>
+  <si>
+    <t>以上</t>
+  </si>
+  <si>
+    <t>以下</t>
+  </si>
+  <si>
+    <t>以降</t>
+  </si>
+  <si>
+    <t>3月末日をもってこのサービスは停止させていただきます。</t>
+  </si>
+  <si>
+    <t>このサービスを開始いたします</t>
+  </si>
+  <si>
+    <t>このサービスは停止させていただきます</t>
+  </si>
+  <si>
+    <t>このサービスはございません</t>
+  </si>
+  <si>
+    <t>これをもって本日の役員会は閉会したいと思います。</t>
+  </si>
+  <si>
+    <t>休憩</t>
+  </si>
+  <si>
+    <t>開会</t>
+  </si>
+  <si>
+    <t>閉会</t>
+  </si>
+  <si>
+    <t>この職に転職します</t>
+  </si>
+  <si>
+    <t>今期をもって私は、この職を引退します。</t>
+  </si>
+  <si>
+    <t>この職を引退します</t>
+  </si>
+  <si>
+    <t>この職を続けます</t>
+  </si>
+  <si>
+    <t>私の睡眠時間は5時間といったところです。</t>
+  </si>
+  <si>
+    <t>十分</t>
+  </si>
+  <si>
+    <t>もう少し欲しい</t>
+  </si>
+  <si>
+    <t>5時間</t>
+  </si>
+  <si>
+    <t>毎日の運動といえば近所を走るといったところなので、無理なく続けられる。</t>
+  </si>
+  <si>
+    <t>とても疲れる</t>
+  </si>
+  <si>
+    <t>40分もかかる</t>
+  </si>
+  <si>
+    <t>無理なく続けられる</t>
+  </si>
+  <si>
+    <t>このクラスのテストの平均点は、毎回せいぜい67、8点といったところです。</t>
+  </si>
+  <si>
+    <t>せめて</t>
+  </si>
+  <si>
+    <t>せいぜい</t>
+  </si>
+  <si>
+    <t>最低でも</t>
+  </si>
+  <si>
+    <t>全国高校野球大会、一昨日の第1試合皮切りに連日熱戦が繰り広げられている。</t>
   </si>
 </sst>
 </file>
@@ -459,7 +723,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -469,6 +733,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,7 +770,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -530,6 +800,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -838,9 +1112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -851,7 +1123,7 @@
     <col min="5" max="5" width="34.140625" customWidth="1"/>
     <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="71.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="75.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -902,7 +1174,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -946,7 +1218,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1031,7 +1303,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -1045,56 +1317,82 @@
         <v>125</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="B12" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -1176,10 +1474,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E44"/>
+  <dimension ref="B3:E83"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1525,6 +1823,304 @@
         <v>119</v>
       </c>
     </row>
+    <row r="45" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C48" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C50" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C52" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C54" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C56" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C58" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C60" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C62" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C64" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C66" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C68" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C70" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C72" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C74" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C76" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C78" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C80" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C82" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>217</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Bunpo.xlsx
+++ b/Bunpo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="内容" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="253">
   <si>
     <t>No</t>
   </si>
@@ -693,6 +693,122 @@
   </si>
   <si>
     <t>全国高校野球大会、一昨日の第1試合皮切りに連日熱戦が繰り広げられている。</t>
+  </si>
+  <si>
+    <t>を皮切りに</t>
+  </si>
+  <si>
+    <t>に至るまで</t>
+  </si>
+  <si>
+    <t>をもって</t>
+  </si>
+  <si>
+    <t>今日を限りにもう車は運転しないことにしたんです。</t>
+  </si>
+  <si>
+    <t>を限りに</t>
+  </si>
+  <si>
+    <t>ただ今をもってチケットの販売を打ち切らせていただきます。</t>
+  </si>
+  <si>
+    <t>日常のおかずから高級料理の食材に至るまで、この店にないものはない</t>
+  </si>
+  <si>
+    <t>といったところで</t>
+  </si>
+  <si>
+    <t>限りで</t>
+  </si>
+  <si>
+    <t>3歳の息子がやってくれる手伝いは、洗濯物をかごに入れるとか新聞を転ぶといったところで、あまり役に立ちません。</t>
+  </si>
+  <si>
+    <t>～をおいて</t>
+  </si>
+  <si>
+    <t>～のほかに、同じぐらい高く評価できるものはいない・ない</t>
+  </si>
+  <si>
+    <t>1.今、こんな素晴らしい色使いの染色ができる人、彼をおいてほかにいない。
+2.日本で世界的な平和会議を行うなら、広島か長崎をおいてほかに候補地は考えられない。
+3.毎年夏にはこのホテルに来ている。心からくつろげる場所はここをおいてほかにない。</t>
+  </si>
+  <si>
+    <t>「名」＋をおいて</t>
+  </si>
+  <si>
+    <t>～ならでは</t>
+  </si>
+  <si>
+    <t>～だけがそのようなすばらしいことをじつげんできる</t>
+  </si>
+  <si>
+    <t>「名」＋ならでは</t>
+  </si>
+  <si>
+    <t>1.さすが歌舞伎俳優の一之助さんならではの演技だ。ほれぼれするほどリアリティーがある。
+2.ぜひ一度ヨットに乗ってみてはいかがですか。この体験はハワイならではですよ。
+3.この布製の袋にはぬくもりが感じられる。手作りならではだと思う。
+4.100年続いた老舗ならでは出せないこの味の良さ！店主が変わっても全く味が落ちていない。</t>
+  </si>
+  <si>
+    <t>話者が高く評価しているものを表わす言葉につく。後には、「いない・～ない」という言葉が来る</t>
+  </si>
+  <si>
+    <t>話者が高く評価しているものを表わす言葉につく。「～でなければ実現できない」と言いたいときに使う。普通、「～ならではの…だ・～ならではだ」という形で使う。</t>
+  </si>
+  <si>
+    <t>～にとどまらず</t>
+  </si>
+  <si>
+    <t>～に範囲に収まらないで、もっと広く及ぶ</t>
+  </si>
+  <si>
+    <t>「名」・「動」辞書形＋にとどまらず</t>
+  </si>
+  <si>
+    <t>1.マスメディアによる情報というものは、今や一国にとどまらず、世界中に伝わる。
+2.農作物は、台風に襲われた直後にとどまらず、一年中その影響を受ける。
+3.一人の人間の明るさは、場を明るくするにとどまらず、周囲の人々に心身の活力をも与える。</t>
+  </si>
+  <si>
+    <t>限られた範囲やある現象を表わす言葉につく。後には、それを含むより広い範囲を表わす文が来る。</t>
+  </si>
+  <si>
+    <t>～はおろか</t>
+  </si>
+  <si>
+    <t>～はもちろん、程度が違うほかのことにも同じことが言える。</t>
+  </si>
+  <si>
+    <t>「名」（＋助詞）＋はおろか</t>
+  </si>
+  <si>
+    <t>1.手間がかかる料理はおろか、日常の簡単な料理を作るのさえ面倒だ。
+2.小売店を取り巻く状況は厳しい。町の専門店はおろか、有名デパートの閉店も相次いでいる。
+3.私は花粉症がひどくて、外ではおろか、家の中でさえマスクが外せない。</t>
+  </si>
+  <si>
+    <t>「～」を当然のこととして取り上げ、それよりも程度が上の場合の状態を強調する。全体としてマイナスイメージの文になりやすい。後の文には程度が上であることを強調する言葉（も・紗枝・まで等）が使われることが多い。</t>
+  </si>
+  <si>
+    <t>～もさることながら</t>
+  </si>
+  <si>
+    <t>～もそうだが、それに追加して、もっと強調したいことがある。</t>
+  </si>
+  <si>
+    <t>1.この作家が書くものは鋭い感性もさることながら、注意深く選ばれた語彙と分の転び方が素晴らしい。
+2.彼は人柄もさることながら、その頭の動きの良さで周囲の人をぐいぐい引っ張ていく。
+3.若者の政治的無関心もさることながら、社会全体に政治に対する無力感が広がっているような気がする。</t>
+  </si>
+  <si>
+    <t>「名」＋もさることながら</t>
+  </si>
+  <si>
+    <t>後には、「～」よりも強調したいことを表わす文が来る。</t>
   </si>
 </sst>
 </file>
@@ -1112,7 +1228,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1240,7 +1358,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1394,65 +1512,115 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="B14" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>231</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H14" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="B15" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>234</v>
+      </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H15" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="B16" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>240</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H16" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="B17" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>245</v>
+      </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="B18" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>251</v>
+      </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="H18" s="4" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
@@ -1474,10 +1642,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E83"/>
+  <dimension ref="B1:E93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1487,6 +1655,11 @@
     <col min="5" max="5" width="28.28515625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>38</v>
@@ -2120,6 +2293,86 @@
       <c r="B83" t="s">
         <v>217</v>
       </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C84" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C86" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C88" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C90" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C92" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bunpo.xlsx
+++ b/Bunpo.xlsx
@@ -1228,9 +1228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Bunpo.xlsx
+++ b/Bunpo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="257">
   <si>
     <t>No</t>
   </si>
@@ -783,9 +783,6 @@
     <t>～はもちろん、程度が違うほかのことにも同じことが言える。</t>
   </si>
   <si>
-    <t>「名」（＋助詞）＋はおろか</t>
-  </si>
-  <si>
     <t>1.手間がかかる料理はおろか、日常の簡単な料理を作るのさえ面倒だ。
 2.小売店を取り巻く状況は厳しい。町の専門店はおろか、有名デパートの閉店も相次いでいる。
 3.私は花粉症がひどくて、外ではおろか、家の中でさえマスクが外せない。</t>
@@ -809,6 +806,22 @@
   </si>
   <si>
     <t>後には、「～」よりも強調したいことを表わす文が来る。</t>
+  </si>
+  <si>
+    <t>～なり～なり</t>
+  </si>
+  <si>
+    <t>⇒～でもいいし･･･でもいいから、何かをする。</t>
+  </si>
+  <si>
+    <t>「名」(＋助詞)＋はおろか</t>
+  </si>
+  <si>
+    <t>「名」(＋助詞)・「動」辞書形＋なり</t>
+  </si>
+  <si>
+    <t>1.昼休みは40分しかいないだから、おにぎりなりサンドイッチなり何か買って早く食べたほうがいい。
+2.</t>
   </si>
 </sst>
 </file>
@@ -859,7 +872,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -882,11 +895,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -921,6 +945,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1226,9 +1253,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H19"/>
+  <dimension ref="A2:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1587,15 +1616,15 @@
         <v>244</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -1603,34 +1632,47 @@
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>249</v>
-      </c>
       <c r="D18" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="4"/>
+      <c r="B19" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>253</v>
+      </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>255</v>
+      </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="H19" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
